--- a/Code/Results/Cases/Case_2_210/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_210/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.097075229940828</v>
+        <v>0.3555940612908728</v>
       </c>
       <c r="C2">
-        <v>0.1809565482966349</v>
+        <v>0.09032199088997572</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.387745769365253</v>
+        <v>0.4204824085400674</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.1438247648893594</v>
+        <v>0.2849405714051017</v>
       </c>
       <c r="H2">
-        <v>0.1701980162557888</v>
+        <v>0.4728366860157251</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.181018661066133</v>
+        <v>0.3698186826210872</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6107711205559241</v>
+        <v>1.440362061093396</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9567821238964314</v>
+        <v>0.3113034052889816</v>
       </c>
       <c r="C3">
-        <v>0.1653170230241159</v>
+        <v>0.08509834168479813</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.193789176358791</v>
+        <v>0.3669313368163643</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1461180729575489</v>
+        <v>0.2900318735753089</v>
       </c>
       <c r="H3">
-        <v>0.1779921883470266</v>
+        <v>0.4791680595924674</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.036198152618994</v>
+        <v>0.3230553435882655</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6315760216629798</v>
+        <v>1.46417179861831</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8706833932936888</v>
+        <v>0.2840365355257006</v>
       </c>
       <c r="C4">
-        <v>0.1557284812378157</v>
+        <v>0.08188131934259957</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.076573544973073</v>
+        <v>0.334125222672526</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.1483730204086484</v>
+        <v>0.2934741600505184</v>
       </c>
       <c r="H4">
-        <v>0.1832972132923913</v>
+        <v>0.4833271066329061</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9472599320761503</v>
+        <v>0.2942206238048186</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6472251512585103</v>
+        <v>1.480022108767201</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8355961810404438</v>
+        <v>0.2729075524543134</v>
       </c>
       <c r="C5">
-        <v>0.1518235057807402</v>
+        <v>0.08056802476838243</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.029208071177408</v>
+        <v>0.3207738067291359</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1494922792335309</v>
+        <v>0.2949561359333188</v>
       </c>
       <c r="H5">
-        <v>0.1855842738201332</v>
+        <v>0.4850901794627944</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9110009193354642</v>
+        <v>0.2824402993478827</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6542872027149826</v>
+        <v>1.486790037218604</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.829769569986297</v>
+        <v>0.271058554819831</v>
       </c>
       <c r="C6">
-        <v>0.1511752031923947</v>
+        <v>0.08034981539745445</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.021365319264433</v>
+        <v>0.3185578214490903</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1496898769338415</v>
+        <v>0.2952069926747143</v>
       </c>
       <c r="H6">
-        <v>0.1859714497845566</v>
+        <v>0.4853870554347033</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9049788542526471</v>
+        <v>0.2804823976044304</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6555001466668315</v>
+        <v>1.487932475120857</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8702102150505766</v>
+        <v>0.2838865162095203</v>
       </c>
       <c r="C7">
-        <v>0.1556758089524806</v>
+        <v>0.08186361709718426</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.075933223964569</v>
+        <v>0.3339450924051732</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1483873200509009</v>
+        <v>0.2934938261466407</v>
       </c>
       <c r="H7">
-        <v>0.1833275572711486</v>
+        <v>0.4833506078782577</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9467710095553343</v>
+        <v>0.2940618705370639</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6473176680672736</v>
+        <v>1.480112134110968</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.048686091854023</v>
+        <v>0.3403380093939745</v>
       </c>
       <c r="C8">
-        <v>0.1755603768777689</v>
+        <v>0.08852294546413475</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.320436296051312</v>
+        <v>0.402001696597722</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.1444319291753757</v>
+        <v>0.2866302458077072</v>
       </c>
       <c r="H8">
-        <v>0.1727743192893101</v>
+        <v>0.4749633472463728</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.131081035794921</v>
+        <v>0.3537203734099137</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6173244390440402</v>
+        <v>1.448315704582313</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.399600565538975</v>
+        <v>0.450442963096549</v>
       </c>
       <c r="C9">
-        <v>0.2147247933831977</v>
+        <v>0.1015012029118054</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.818276612559075</v>
+        <v>0.5361198713248569</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.1440003723201713</v>
+        <v>0.275693017892813</v>
       </c>
       <c r="H9">
-        <v>0.1564585108047751</v>
+        <v>0.4606731252111445</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.492950547013209</v>
+        <v>0.4697188147564475</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.583143821575149</v>
+        <v>1.395764292973837</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.658898377910987</v>
+        <v>0.5309504188337542</v>
       </c>
       <c r="C10">
-        <v>0.2436951920515895</v>
+        <v>0.110982923532319</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.200645951154172</v>
+        <v>0.6351624008490546</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.1490531423585963</v>
+        <v>0.2692132945757137</v>
       </c>
       <c r="H10">
-        <v>0.1475254239097765</v>
+        <v>0.4514923991899877</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.759986468457896</v>
+        <v>0.5543130424975118</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5757743628734175</v>
+        <v>1.363175670066383</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.777407502667103</v>
+        <v>0.5674870205707521</v>
       </c>
       <c r="C11">
-        <v>0.2569403934921297</v>
+        <v>0.1152839809950308</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.379570829283594</v>
+        <v>0.6803522854587953</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.1527377069243343</v>
+        <v>0.2666072589557587</v>
       </c>
       <c r="H11">
-        <v>0.1442181451864286</v>
+        <v>0.4476028064661364</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.881946008999961</v>
+        <v>0.5926556050264082</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5769368672092128</v>
+        <v>1.349667490229308</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.822383666860333</v>
+        <v>0.581309483266125</v>
       </c>
       <c r="C12">
-        <v>0.2619676642988225</v>
+        <v>0.1169108330968243</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.448171048079729</v>
+        <v>0.6974856016378936</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.1543524771516616</v>
+        <v>0.2656698697153104</v>
       </c>
       <c r="H12">
-        <v>0.1430831398843111</v>
+        <v>0.4461712229172647</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.928218574046554</v>
+        <v>0.6071542574371165</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5780872157337456</v>
+        <v>1.34474244490454</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.812692492444512</v>
+        <v>0.5783331647349996</v>
       </c>
       <c r="C13">
-        <v>0.2608844006391706</v>
+        <v>0.1165605460305699</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.433356957188266</v>
+        <v>0.6937946827214887</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.1539946038705722</v>
+        <v>0.2658695481852291</v>
       </c>
       <c r="H13">
-        <v>0.1433222172397706</v>
+        <v>0.4464777009476251</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.918248652286508</v>
+        <v>0.6040326520546841</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5778068560346838</v>
+        <v>1.345794667726324</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.781105608090456</v>
+        <v>0.5686244705211436</v>
       </c>
       <c r="C14">
-        <v>0.2573537450695795</v>
+        <v>0.1154178610835288</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.385196878850465</v>
+        <v>0.6817614265349619</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.152866033681839</v>
+        <v>0.266529146210722</v>
       </c>
       <c r="H14">
-        <v>0.1441223628765158</v>
+        <v>0.4474842006109938</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.885750975292069</v>
+        <v>0.5938488398721233</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5770169067084936</v>
+        <v>1.349258486602508</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.761771283859218</v>
+        <v>0.5626758811738171</v>
       </c>
       <c r="C15">
-        <v>0.2551926918898886</v>
+        <v>0.1147176875169862</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.355811595713021</v>
+        <v>0.6743934740748045</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.1522039681667451</v>
+        <v>0.2669396201241057</v>
       </c>
       <c r="H15">
-        <v>0.1446280314868389</v>
+        <v>0.4481060944145057</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.865857431964145</v>
+        <v>0.5876082243762255</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5766274202485846</v>
+        <v>1.351404973000712</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.651166309191836</v>
+        <v>0.52856086287332</v>
       </c>
       <c r="C16">
-        <v>0.2428310937860942</v>
+        <v>0.1107015841388517</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.189063723626504</v>
+        <v>0.6322119775050368</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.1488419239307675</v>
+        <v>0.2693905080904386</v>
       </c>
       <c r="H16">
-        <v>0.147757503058898</v>
+        <v>0.4517523708690661</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.752027488559463</v>
+        <v>0.5518043894642233</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.575794325999766</v>
+        <v>1.364085029859282</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.58346893699246</v>
+        <v>0.5076097157763684</v>
       </c>
       <c r="C17">
-        <v>0.2352660563551723</v>
+        <v>0.1082346272211652</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.088132540083649</v>
+        <v>0.6063706090068592</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.1471482328461562</v>
+        <v>0.2709817846323048</v>
       </c>
       <c r="H17">
-        <v>0.1498769688879733</v>
+        <v>0.4540627507033221</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.682333714085814</v>
+        <v>0.5298035651339319</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5764812941513497</v>
+        <v>1.372201667388666</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.544581984348497</v>
+        <v>0.4955510561069048</v>
       </c>
       <c r="C18">
-        <v>0.2309209637786722</v>
+        <v>0.1068145545369958</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.030540091885186</v>
+        <v>0.59151994929924</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.1463032170962038</v>
+        <v>0.2719291799629602</v>
       </c>
       <c r="H18">
-        <v>0.1511666697941081</v>
+        <v>0.4554186067351864</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.642291932092434</v>
+        <v>0.5171361606404332</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5772974367936712</v>
+        <v>1.376994009003369</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.531423679978587</v>
+        <v>0.4914668288424195</v>
       </c>
       <c r="C19">
-        <v>0.2294507817382936</v>
+        <v>0.1063335490685944</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.011115689119663</v>
+        <v>0.5864938921892673</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.1460387043052265</v>
+        <v>0.2722554607831995</v>
       </c>
       <c r="H19">
-        <v>0.1516152224625174</v>
+        <v>0.4558823087194952</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.628741503213888</v>
+        <v>0.5128449658643603</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.577644309369191</v>
+        <v>1.378637860573093</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.590670044354198</v>
+        <v>0.5098408459773793</v>
       </c>
       <c r="C20">
-        <v>0.2360707202793151</v>
+        <v>0.1084973582088935</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.098828292365582</v>
+        <v>0.6091201508124442</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.1473150219213579</v>
+        <v>0.2708090622330417</v>
       </c>
       <c r="H20">
-        <v>0.1496439771144296</v>
+        <v>0.4538140131974515</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.689748021360629</v>
+        <v>0.5321469529189642</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5763641674751057</v>
+        <v>1.371324811302472</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.790380578997315</v>
+        <v>0.571476511913545</v>
       </c>
       <c r="C21">
-        <v>0.2583904519295288</v>
+        <v>0.1157535468161797</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.39931861979575</v>
+        <v>0.6852953068051306</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.1531913948219312</v>
+        <v>0.2663340612852068</v>
       </c>
       <c r="H21">
-        <v>0.1438840823194809</v>
+        <v>0.4471874451530411</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.895293745969752</v>
+        <v>0.5968406439700971</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5772291487531902</v>
+        <v>1.348235909702908</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.921492493030911</v>
+        <v>0.6116819829310032</v>
       </c>
       <c r="C22">
-        <v>0.2730464183053556</v>
+        <v>0.1204849657898848</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.600704355759063</v>
+        <v>0.7352026205710445</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.1583221085619542</v>
+        <v>0.2636978349932377</v>
       </c>
       <c r="H22">
-        <v>0.1408084599019048</v>
+        <v>0.443097488598184</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.030159814827243</v>
+        <v>0.6389998753467125</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5819659696804962</v>
+        <v>1.334255076996058</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.851454622704239</v>
+        <v>0.5902308406765542</v>
       </c>
       <c r="C23">
-        <v>0.2652172282009104</v>
+        <v>0.117960752733282</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.492717063396753</v>
+        <v>0.7085544510077852</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.155458543280858</v>
+        <v>0.265078335137602</v>
       </c>
       <c r="H23">
-        <v>0.1423839008683743</v>
+        <v>0.4452583060738746</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.958123768682043</v>
+        <v>0.6165100925632316</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5790345711108671</v>
+        <v>1.341615133149872</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.5874143218754</v>
+        <v>0.5088321942186269</v>
       </c>
       <c r="C24">
-        <v>0.2357069189509247</v>
+        <v>0.1083785830861359</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.093991399749214</v>
+        <v>0.6078770647629739</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.1472392171829995</v>
+        <v>0.270887048664207</v>
       </c>
       <c r="H24">
-        <v>0.1497490915910404</v>
+        <v>0.4539263814929697</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.686395933211827</v>
+        <v>0.5310875659232295</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5764158130534867</v>
+        <v>1.371720845581194</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.304479900750209</v>
+        <v>0.420722901410528</v>
       </c>
       <c r="C25">
-        <v>0.2041025169421005</v>
+        <v>0.09799931707446774</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.681106173723975</v>
+        <v>0.4997560556011678</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.1432438130758058</v>
+        <v>0.2783799205204076</v>
       </c>
       <c r="H25">
-        <v>0.1603656595981988</v>
+        <v>0.4643077370791389</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.39491984779167</v>
+        <v>0.4384469640354496</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5894846506676856</v>
+        <v>1.408926820221978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_210/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_210/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3555940612908728</v>
+        <v>1.097075229940657</v>
       </c>
       <c r="C2">
-        <v>0.09032199088997572</v>
+        <v>0.1809565482961091</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4204824085400674</v>
+        <v>1.387745769365239</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2849405714051017</v>
+        <v>0.1438247648892528</v>
       </c>
       <c r="H2">
-        <v>0.4728366860157251</v>
+        <v>0.1701980162557959</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3698186826210872</v>
+        <v>1.181018661066133</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.440362061093396</v>
+        <v>0.6107711205559525</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3113034052889816</v>
+        <v>0.9567821238964314</v>
       </c>
       <c r="C3">
-        <v>0.08509834168479813</v>
+        <v>0.1653170230240733</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3669313368163643</v>
+        <v>1.193789176358791</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.2900318735753089</v>
+        <v>0.1461180729575489</v>
       </c>
       <c r="H3">
-        <v>0.4791680595924674</v>
+        <v>0.1779921883470195</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3230553435882655</v>
+        <v>1.036198152618994</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.46417179861831</v>
+        <v>0.6315760216629656</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2840365355257006</v>
+        <v>0.8706833932936604</v>
       </c>
       <c r="C4">
-        <v>0.08188131934259957</v>
+        <v>0.1557284812377873</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.334125222672526</v>
+        <v>1.076573544973073</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2934741600505184</v>
+        <v>0.1483730204086626</v>
       </c>
       <c r="H4">
-        <v>0.4833271066329061</v>
+        <v>0.1832972132923913</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2942206238048186</v>
+        <v>0.9472599320760651</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.480022108767201</v>
+        <v>0.6472251512584393</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2729075524543134</v>
+        <v>0.8355961810403016</v>
       </c>
       <c r="C5">
-        <v>0.08056802476838243</v>
+        <v>0.1518235057805697</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3207738067291359</v>
+        <v>1.029208071177436</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.2949561359333188</v>
+        <v>0.1494922792334847</v>
       </c>
       <c r="H5">
-        <v>0.4850901794627944</v>
+        <v>0.1855842738201261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2824402993478827</v>
+        <v>0.9110009193354358</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.486790037218604</v>
+        <v>0.6542872027149684</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.271058554819831</v>
+        <v>0.8297695699863255</v>
       </c>
       <c r="C6">
-        <v>0.08034981539745445</v>
+        <v>0.151175203192409</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3185578214490903</v>
+        <v>1.021365319264433</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.2952069926747143</v>
+        <v>0.1496898769338273</v>
       </c>
       <c r="H6">
-        <v>0.4853870554347033</v>
+        <v>0.1859714497845566</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2804823976044304</v>
+        <v>0.9049788542526471</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.487932475120857</v>
+        <v>0.655500146666796</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2838865162095203</v>
+        <v>0.8702102150506619</v>
       </c>
       <c r="C7">
-        <v>0.08186361709718426</v>
+        <v>0.1556758089522248</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3339450924051732</v>
+        <v>1.075933223964597</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2934938261466407</v>
+        <v>0.1483873200509507</v>
       </c>
       <c r="H7">
-        <v>0.4833506078782577</v>
+        <v>0.1833275572710349</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2940618705370639</v>
+        <v>0.946771009555448</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.480112134110968</v>
+        <v>0.6473176680672452</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3403380093939745</v>
+        <v>1.048686091854165</v>
       </c>
       <c r="C8">
-        <v>0.08852294546413475</v>
+        <v>0.1755603768778116</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.402001696597722</v>
+        <v>1.320436296051355</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.2866302458077072</v>
+        <v>0.1444319291754397</v>
       </c>
       <c r="H8">
-        <v>0.4749633472463728</v>
+        <v>0.172774319289303</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3537203734099137</v>
+        <v>1.131081035795063</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.448315704582313</v>
+        <v>0.6173244390440118</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.450442963096549</v>
+        <v>1.399600565538975</v>
       </c>
       <c r="C9">
-        <v>0.1015012029118054</v>
+        <v>0.2147247933831409</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5361198713248569</v>
+        <v>1.818276612559089</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.275693017892813</v>
+        <v>0.1440003723201642</v>
       </c>
       <c r="H9">
-        <v>0.4606731252111445</v>
+        <v>0.1564585108047751</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4697188147564475</v>
+        <v>1.492950547013209</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.395764292973837</v>
+        <v>0.5831438215751348</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5309504188337542</v>
+        <v>1.658898377910759</v>
       </c>
       <c r="C10">
-        <v>0.110982923532319</v>
+        <v>0.2436951920513764</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6351624008490546</v>
+        <v>2.200645951154158</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.2692132945757137</v>
+        <v>0.1490531423585963</v>
       </c>
       <c r="H10">
-        <v>0.4514923991899877</v>
+        <v>0.1475254239096628</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5543130424975118</v>
+        <v>1.759986468457896</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.363175670066383</v>
+        <v>0.5757743628734175</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5674870205707521</v>
+        <v>1.777407502667074</v>
       </c>
       <c r="C11">
-        <v>0.1152839809950308</v>
+        <v>0.2569403934923713</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6803522854587953</v>
+        <v>2.379570829283594</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2666072589557587</v>
+        <v>0.1527377069243983</v>
       </c>
       <c r="H11">
-        <v>0.4476028064661364</v>
+        <v>0.1442181451864286</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5926556050264082</v>
+        <v>1.881946008999989</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.349667490229308</v>
+        <v>0.576936867209227</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.581309483266125</v>
+        <v>1.822383666860361</v>
       </c>
       <c r="C12">
-        <v>0.1169108330968243</v>
+        <v>0.2619676642988367</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6974856016378936</v>
+        <v>2.448171048079772</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.2656698697153104</v>
+        <v>0.1543524771516545</v>
       </c>
       <c r="H12">
-        <v>0.4461712229172647</v>
+        <v>0.1430831398843111</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6071542574371165</v>
+        <v>1.928218574046468</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.34474244490454</v>
+        <v>0.5780872157336887</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5783331647349996</v>
+        <v>1.812692492444512</v>
       </c>
       <c r="C13">
-        <v>0.1165605460305699</v>
+        <v>0.2608844006392985</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6937946827214887</v>
+        <v>2.43335695718828</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.2658695481852291</v>
+        <v>0.1539946038705011</v>
       </c>
       <c r="H13">
-        <v>0.4464777009476251</v>
+        <v>0.1433222172397564</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6040326520546841</v>
+        <v>1.918248652286479</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.345794667726324</v>
+        <v>0.577806856034627</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5686244705211436</v>
+        <v>1.781105608090371</v>
       </c>
       <c r="C14">
-        <v>0.1154178610835288</v>
+        <v>0.2573537450698353</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6817614265349619</v>
+        <v>2.385196878850437</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.266529146210722</v>
+        <v>0.1528660336818533</v>
       </c>
       <c r="H14">
-        <v>0.4474842006109938</v>
+        <v>0.144122362876395</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5938488398721233</v>
+        <v>1.885750975292069</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.349258486602508</v>
+        <v>0.5770169067084794</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5626758811738171</v>
+        <v>1.761771283859218</v>
       </c>
       <c r="C15">
-        <v>0.1147176875169862</v>
+        <v>0.2551926918899881</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6743934740748045</v>
+        <v>2.355811595712993</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.2669396201241057</v>
+        <v>0.1522039681667948</v>
       </c>
       <c r="H15">
-        <v>0.4481060944145057</v>
+        <v>0.1446280314867252</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5876082243762255</v>
+        <v>1.865857431964145</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.351404973000712</v>
+        <v>0.5766274202485846</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.52856086287332</v>
+        <v>1.651166309191836</v>
       </c>
       <c r="C16">
-        <v>0.1107015841388517</v>
+        <v>0.2428310937861085</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6322119775050368</v>
+        <v>2.189063723626504</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.2693905080904386</v>
+        <v>0.1488419239307106</v>
       </c>
       <c r="H16">
-        <v>0.4517523708690661</v>
+        <v>0.147757503058898</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5518043894642233</v>
+        <v>1.752027488559435</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.364085029859282</v>
+        <v>0.5757943259997091</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5076097157763684</v>
+        <v>1.583468936992489</v>
       </c>
       <c r="C17">
-        <v>0.1082346272211652</v>
+        <v>0.2352660563551865</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6063706090068592</v>
+        <v>2.08813254008362</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.2709817846323048</v>
+        <v>0.1471482328460922</v>
       </c>
       <c r="H17">
-        <v>0.4540627507033221</v>
+        <v>0.1498769688879733</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5298035651339319</v>
+        <v>1.682333714085729</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.372201667388666</v>
+        <v>0.5764812941513355</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4955510561069048</v>
+        <v>1.544581984348582</v>
       </c>
       <c r="C18">
-        <v>0.1068145545369958</v>
+        <v>0.2309209637784448</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.59151994929924</v>
+        <v>2.030540091885157</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.2719291799629602</v>
+        <v>0.1463032170960901</v>
       </c>
       <c r="H18">
-        <v>0.4554186067351864</v>
+        <v>0.1511666697939944</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5171361606404332</v>
+        <v>1.642291932092519</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.376994009003369</v>
+        <v>0.577297436793728</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4914668288424195</v>
+        <v>1.531423679978502</v>
       </c>
       <c r="C19">
-        <v>0.1063335490685944</v>
+        <v>0.2294507817380094</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5864938921892673</v>
+        <v>2.011115689119663</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.2722554607831995</v>
+        <v>0.1460387043052265</v>
       </c>
       <c r="H19">
-        <v>0.4558823087194952</v>
+        <v>0.1516152224625174</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5128449658643603</v>
+        <v>1.628741503213917</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.378637860573093</v>
+        <v>0.5776443093692478</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5098408459773793</v>
+        <v>1.590670044354255</v>
       </c>
       <c r="C20">
-        <v>0.1084973582088935</v>
+        <v>0.2360707202797983</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6091201508124442</v>
+        <v>2.098828292365582</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2708090622330417</v>
+        <v>0.1473150219213224</v>
       </c>
       <c r="H20">
-        <v>0.4538140131974515</v>
+        <v>0.1496439771144296</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5321469529189642</v>
+        <v>1.689748021360629</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.371324811302472</v>
+        <v>0.5763641674751057</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.571476511913545</v>
+        <v>1.790380578997343</v>
       </c>
       <c r="C21">
-        <v>0.1157535468161797</v>
+        <v>0.2583904519295146</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6852953068051306</v>
+        <v>2.399318619795679</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2663340612852068</v>
+        <v>0.1531913948219383</v>
       </c>
       <c r="H21">
-        <v>0.4471874451530411</v>
+        <v>0.143884082319488</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5968406439700971</v>
+        <v>1.895293745969695</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.348235909702908</v>
+        <v>0.5772291487531049</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6116819829310032</v>
+        <v>1.921492493030939</v>
       </c>
       <c r="C22">
-        <v>0.1204849657898848</v>
+        <v>0.273046418305114</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7352026205710445</v>
+        <v>2.600704355759063</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.2636978349932377</v>
+        <v>0.1583221085619115</v>
       </c>
       <c r="H22">
-        <v>0.443097488598184</v>
+        <v>0.1408084599020185</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6389998753467125</v>
+        <v>2.030159814827243</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.334255076996058</v>
+        <v>0.581965969680482</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5902308406765542</v>
+        <v>1.851454622704352</v>
       </c>
       <c r="C23">
-        <v>0.117960752733282</v>
+        <v>0.2652172282006831</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7085544510077852</v>
+        <v>2.492717063396739</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.265078335137602</v>
+        <v>0.155458543280858</v>
       </c>
       <c r="H23">
-        <v>0.4452583060738746</v>
+        <v>0.1423839008683743</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6165100925632316</v>
+        <v>1.958123768682157</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.341615133149872</v>
+        <v>0.5790345711108671</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5088321942186269</v>
+        <v>1.587414321875457</v>
       </c>
       <c r="C24">
-        <v>0.1083785830861359</v>
+        <v>0.2357069189510952</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6078770647629739</v>
+        <v>2.093991399749157</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.270887048664207</v>
+        <v>0.1472392171829853</v>
       </c>
       <c r="H24">
-        <v>0.4539263814929697</v>
+        <v>0.1497490915909196</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5310875659232295</v>
+        <v>1.686395933211827</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.371720845581194</v>
+        <v>0.5764158130534867</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.420722901410528</v>
+        <v>1.304479900750295</v>
       </c>
       <c r="C25">
-        <v>0.09799931707446774</v>
+        <v>0.2041025169418447</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4997560556011678</v>
+        <v>1.681106173723947</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2783799205204076</v>
+        <v>0.1432438130757987</v>
       </c>
       <c r="H25">
-        <v>0.4643077370791389</v>
+        <v>0.1603656595981988</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4384469640354496</v>
+        <v>1.394919847791471</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.408926820221978</v>
+        <v>0.5894846506676288</v>
       </c>
     </row>
   </sheetData>
